--- a/Документы проекта/Примеры.xlsx
+++ b/Документы проекта/Примеры.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java programing\workspace\TaskMenager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panas\OneDrive\Project\Документы проекта\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>мне должны</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>счёт 2</t>
-  </si>
-  <si>
-    <t>Процент выполнения</t>
   </si>
   <si>
     <t>01.09.2013 - 24.06.2017</t>
@@ -226,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -331,12 +334,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -348,27 +360,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -378,9 +374,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -665,7 +681,7 @@
   <dimension ref="A4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,65 +693,65 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="19">
         <v>41518</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -747,7 +763,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,33 +777,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -801,11 +815,9 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -819,11 +831,9 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -839,11 +849,9 @@
         <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.01</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F5" s="24"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,9 +868,7 @@
       <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -878,9 +884,7 @@
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
+      <c r="F7" s="24"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,9 +901,7 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
+      <c r="F8" s="24"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,9 +918,7 @@
       <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -931,12 +931,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <v>43267</v>
       </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -949,14 +947,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="18">
+      <c r="E11" s="13">
         <v>43282</v>
       </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="25"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,7 +973,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,17 +985,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
+      <c r="D2" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -1018,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -1044,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -1056,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -1068,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -1085,7 +1082,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,112 +1247,112 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9">
-        <f>IF($B2="+",C2,-C2)+IF($B3="+",C3,-C3)+IF($B4="+",C4,-C4)+IF($B5="+",C5,-C5)+IF($B6="+",C6,-C6)</f>
+        <f t="shared" ref="C7:N7" si="0">IF($B2="+",C2,-C2)+IF($B3="+",C3,-C3)+IF($B4="+",C4,-C4)+IF($B5="+",C5,-C5)+IF($B6="+",C6,-C6)</f>
         <v>10</v>
       </c>
       <c r="D7" s="9">
-        <f>IF($B2="+",D2,-D2)+IF($B3="+",D3,-D3)+IF($B4="+",D4,-D4)+IF($B5="+",D5,-D5)+IF($B6="+",D6,-D6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E7" s="9">
-        <f>IF($B2="+",E2,-E2)+IF($B3="+",E3,-E3)+IF($B4="+",E4,-E4)+IF($B5="+",E5,-E5)+IF($B6="+",E6,-E6)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F7" s="9">
-        <f>IF($B2="+",F2,-F2)+IF($B3="+",F3,-F3)+IF($B4="+",F4,-F4)+IF($B5="+",F5,-F5)+IF($B6="+",F6,-F6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>IF($B2="+",G2,-G2)+IF($B3="+",G3,-G3)+IF($B4="+",G4,-G4)+IF($B5="+",G5,-G5)+IF($B6="+",G6,-G6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>IF($B2="+",H2,-H2)+IF($B3="+",H3,-H3)+IF($B4="+",H4,-H4)+IF($B5="+",H5,-H5)+IF($B6="+",H6,-H6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="9">
-        <f>IF($B2="+",I2,-I2)+IF($B3="+",I3,-I3)+IF($B4="+",I4,-I4)+IF($B5="+",I5,-I5)+IF($B6="+",I6,-I6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <f>IF($B2="+",J2,-J2)+IF($B3="+",J3,-J3)+IF($B4="+",J4,-J4)+IF($B5="+",J5,-J5)+IF($B6="+",J6,-J6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <f>IF($B2="+",K2,-K2)+IF($B3="+",K3,-K3)+IF($B4="+",K4,-K4)+IF($B5="+",K5,-K5)+IF($B6="+",K6,-K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="9">
-        <f>IF($B2="+",L2,-L2)+IF($B3="+",L3,-L3)+IF($B4="+",L4,-L4)+IF($B5="+",L5,-L5)+IF($B6="+",L6,-L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="9">
-        <f>IF($B2="+",M2,-M2)+IF($B3="+",M3,-M3)+IF($B4="+",M4,-M4)+IF($B5="+",M5,-M5)+IF($B6="+",M6,-M6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="9">
-        <f>IF($B2="+",N2,-N2)+IF($B3="+",N3,-N3)+IF($B4="+",N4,-N4)+IF($B5="+",N5,-N5)+IF($B6="+",N6,-N6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
         <f>D7-C7</f>
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" ref="E8:N8" si="0">E7-D7</f>
+        <f t="shared" ref="E8:N8" si="1">E7-D7</f>
         <v>30</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
